--- a/artfynd/A 19109-2022.xlsx
+++ b/artfynd/A 19109-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY73"/>
+  <dimension ref="A1:AY98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9004,6 +9004,2556 @@
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112529809</v>
+      </c>
+      <c r="B74" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>708479</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7086518</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112529787</v>
+      </c>
+      <c r="B75" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>708411</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7086334</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112529808</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>708522</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7086517</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112529806</v>
+      </c>
+      <c r="B77" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>708467</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7086430</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>112529791</v>
+      </c>
+      <c r="B78" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>708431</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7086350</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112529795</v>
+      </c>
+      <c r="B79" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>708433</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7086376</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112529784</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78746</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>708377</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7086312</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112529798</v>
+      </c>
+      <c r="B81" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>708447</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7086397</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>112529802</v>
+      </c>
+      <c r="B82" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>708527</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7086401</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>112529783</v>
+      </c>
+      <c r="B83" t="n">
+        <v>90837</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>708327</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7086298</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112529796</v>
+      </c>
+      <c r="B84" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>708427</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7086377</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>112529785</v>
+      </c>
+      <c r="B85" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>708373</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7086312</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112529797</v>
+      </c>
+      <c r="B86" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>708425</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7086380</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>112529789</v>
+      </c>
+      <c r="B87" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>708428</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7086347</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>112529792</v>
+      </c>
+      <c r="B88" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>708438</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7086354</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>112529803</v>
+      </c>
+      <c r="B89" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>708494</v>
+      </c>
+      <c r="R89" t="n">
+        <v>7086416</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>112529811</v>
+      </c>
+      <c r="B90" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>708445</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7086554</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>112529794</v>
+      </c>
+      <c r="B91" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>708458</v>
+      </c>
+      <c r="R91" t="n">
+        <v>7086357</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>112529800</v>
+      </c>
+      <c r="B92" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>708496</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7086401</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>112529799</v>
+      </c>
+      <c r="B93" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>708445</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7086400</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112529793</v>
+      </c>
+      <c r="B94" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>708436</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7086358</v>
+      </c>
+      <c r="S94" t="n">
+        <v>10</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112529788</v>
+      </c>
+      <c r="B95" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>708503</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7086342</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>112529801</v>
+      </c>
+      <c r="B96" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>708492</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7086401</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>112529804</v>
+      </c>
+      <c r="B97" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>708467</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7086429</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112529790</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Rågberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>708430</v>
+      </c>
+      <c r="R98" t="n">
+        <v>7086348</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
